--- a/database/pvr.xlsx
+++ b/database/pvr.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasodeponti/Desktop/C&amp;S/Q1/Operations optimisation/project/gurobi trial/AE4441-Group-2-VRP-Project/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DE62E8-4E08-8E47-B7F4-6B965D455554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5802EA3-EEFA-284D-A054-99FA339951E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -431,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C507"/>
+  <dimension ref="A1:D507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -442,7 +453,7 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,10 +472,11 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>97.481650452385779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -472,10 +484,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>99.313780417451269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -483,10 +496,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>225.50807307346119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -494,10 +508,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>59.994851701972571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -505,10 +520,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>55.614109056324921</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -516,10 +532,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>21.39212952587323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -527,10 +544,11 @@
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>27.473281538762748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -538,10 +556,11 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>65.516353058523222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -549,10 +568,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>125.34527733786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -560,10 +580,11 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>37.166612693541431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -571,10 +592,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>49.220848667825543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -582,10 +604,11 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>96.068372374930291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -593,10 +616,11 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>116.44285861102379</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -604,10 +628,11 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>91.287383825125744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -615,10 +640,11 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>100.6158575897788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -626,10 +652,11 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>150.14923437368421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -637,10 +664,11 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>149.27811179134201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -648,10 +676,11 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>222.19837306069681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -659,10 +688,11 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>240.62098060905791</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -670,10 +700,11 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>277.35856497885158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -681,10 +712,11 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>299.43279814987932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -692,10 +724,11 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>257.87679971378441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -703,10 +736,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>97.481650452385779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -714,10 +748,11 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>83.938068250221662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -725,10 +760,11 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <v>153.29064766682731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -736,10 +772,11 @@
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>157.4434795483823</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -747,10 +784,11 @@
         <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>130.65518378014241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -758,10 +796,11 @@
         <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>115.0149927912674</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -769,10 +808,11 @@
         <v>8</v>
       </c>
       <c r="C30" s="2">
-        <v>81.50984846823394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -780,10 +820,11 @@
         <v>9</v>
       </c>
       <c r="C31" s="2">
-        <v>56.921127844092787</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -791,10 +832,11 @@
         <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>52.87056089579049</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -802,10 +844,11 @@
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>64.322972713139578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -813,10 +856,11 @@
         <v>12</v>
       </c>
       <c r="C34" s="2">
-        <v>82.423016692668725</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -824,10 +868,11 @@
         <v>13</v>
       </c>
       <c r="C35" s="2">
-        <v>121.2177126439359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -835,10 +880,11 @@
         <v>14</v>
       </c>
       <c r="C36" s="2">
-        <v>135.68289507352409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -846,10 +892,11 @@
         <v>15</v>
       </c>
       <c r="C37" s="2">
-        <v>54.765715529973129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -857,10 +904,11 @@
         <v>16</v>
       </c>
       <c r="C38" s="2">
-        <v>66.829375708150565</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -868,10 +916,11 @@
         <v>17</v>
       </c>
       <c r="C39" s="2">
-        <v>144.12538153999739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -879,10 +928,11 @@
         <v>18</v>
       </c>
       <c r="C40" s="2">
-        <v>63.962723009642829</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -890,10 +940,11 @@
         <v>19</v>
       </c>
       <c r="C41" s="2">
-        <v>131.08931044114721</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -901,10 +952,11 @@
         <v>20</v>
       </c>
       <c r="C42" s="2">
-        <v>166.72992585399379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -912,10 +964,11 @@
         <v>21</v>
       </c>
       <c r="C43" s="2">
-        <v>194.1910406769025</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -923,10 +976,11 @@
         <v>22</v>
       </c>
       <c r="C44" s="2">
-        <v>224.2694722532552</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -934,10 +988,11 @@
         <v>23</v>
       </c>
       <c r="C45" s="2">
-        <v>200.5770393329729</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -945,10 +1000,11 @@
         <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>99.313780417451269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -956,10 +1012,11 @@
         <v>2</v>
       </c>
       <c r="C47" s="2">
-        <v>83.938068250221662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -967,10 +1024,11 @@
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>134.11304346848681</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -978,10 +1036,11 @@
         <v>5</v>
       </c>
       <c r="C49" s="2">
-        <v>146.37601087361659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -989,10 +1048,11 @@
         <v>6</v>
       </c>
       <c r="C50" s="2">
-        <v>153.68561077589959</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1000,10 +1060,11 @@
         <v>7</v>
       </c>
       <c r="C51" s="2">
-        <v>120.3158256333855</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1011,10 +1072,11 @@
         <v>8</v>
       </c>
       <c r="C52" s="2">
-        <v>106.6904744621568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1022,10 +1084,11 @@
         <v>9</v>
       </c>
       <c r="C53" s="2">
-        <v>113.87283077138351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1033,10 +1096,11 @@
         <v>10</v>
       </c>
       <c r="C54" s="2">
-        <v>136.69614593473329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1044,10 +1108,11 @@
         <v>11</v>
       </c>
       <c r="C55" s="2">
-        <v>69.232671575389702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1055,10 +1120,11 @@
         <v>12</v>
       </c>
       <c r="C56" s="2">
-        <v>50.854010218408263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -1066,10 +1132,11 @@
         <v>13</v>
       </c>
       <c r="C57" s="2">
-        <v>45.828639367621243</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1077,10 +1144,11 @@
         <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>54.246190567471722</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1088,10 +1156,11 @@
         <v>15</v>
       </c>
       <c r="C59" s="2">
-        <v>29.203003773000709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -1099,10 +1168,11 @@
         <v>16</v>
       </c>
       <c r="C60" s="2">
-        <v>19.365891833477932</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1110,10 +1180,11 @@
         <v>17</v>
       </c>
       <c r="C61" s="2">
-        <v>62.180773637603409</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1121,10 +1192,11 @@
         <v>18</v>
       </c>
       <c r="C62" s="2">
-        <v>84.641027223506768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1132,10 +1204,11 @@
         <v>19</v>
       </c>
       <c r="C63" s="2">
-        <v>151.5164054204287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1143,10 +1216,11 @@
         <v>20</v>
       </c>
       <c r="C64" s="2">
-        <v>149.4135939891093</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1154,10 +1228,11 @@
         <v>21</v>
       </c>
       <c r="C65" s="2">
-        <v>191.75227254823901</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1165,10 +1240,11 @@
         <v>22</v>
       </c>
       <c r="C66" s="2">
-        <v>206.74290577158379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1176,10 +1252,11 @@
         <v>23</v>
       </c>
       <c r="C67" s="2">
-        <v>159.39948220395189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4</v>
       </c>
@@ -1187,10 +1264,11 @@
         <v>1</v>
       </c>
       <c r="C68" s="2">
-        <v>225.50807307346119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4</v>
       </c>
@@ -1198,10 +1276,11 @@
         <v>2</v>
       </c>
       <c r="C69" s="2">
-        <v>153.29064766682731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4</v>
       </c>
@@ -1209,10 +1288,11 @@
         <v>3</v>
       </c>
       <c r="C70" s="2">
-        <v>134.11304346848681</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1220,10 +1300,11 @@
         <v>5</v>
       </c>
       <c r="C71" s="2">
-        <v>278.81801025155141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4</v>
       </c>
@@ -1231,10 +1312,11 @@
         <v>6</v>
       </c>
       <c r="C72" s="2">
-        <v>274.00825469727948</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -1242,10 +1324,11 @@
         <v>7</v>
       </c>
       <c r="C73" s="2">
-        <v>246.81429771824949</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4</v>
       </c>
@@ -1253,10 +1336,11 @@
         <v>8</v>
       </c>
       <c r="C74" s="2">
-        <v>222.68027065339069</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1264,10 +1348,11 @@
         <v>9</v>
       </c>
       <c r="C75" s="2">
-        <v>209.15980527369911</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1275,10 +1360,11 @@
         <v>10</v>
       </c>
       <c r="C76" s="2">
-        <v>188.02241395504959</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4</v>
       </c>
@@ -1286,10 +1372,11 @@
         <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>189.2536398719443</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -1297,10 +1384,11 @@
         <v>12</v>
       </c>
       <c r="C78" s="2">
-        <v>181.9289016499439</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -1308,10 +1396,11 @@
         <v>13</v>
       </c>
       <c r="C79" s="2">
-        <v>170.84253181581781</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -1319,10 +1408,11 @@
         <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>165.43691909502459</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -1330,10 +1420,11 @@
         <v>15</v>
       </c>
       <c r="C81" s="2">
-        <v>134.22634116216719</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -1341,10 +1432,11 @@
         <v>16</v>
       </c>
       <c r="C82" s="2">
-        <v>126.00450937532349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1352,10 +1444,11 @@
         <v>17</v>
       </c>
       <c r="C83" s="2">
-        <v>132.14833709933529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1363,10 +1456,11 @@
         <v>18</v>
       </c>
       <c r="C84" s="2">
-        <v>90.260364163379961</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4</v>
       </c>
@@ -1374,10 +1468,11 @@
         <v>19</v>
       </c>
       <c r="C85" s="2">
-        <v>67.28326414464</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1385,10 +1480,11 @@
         <v>20</v>
       </c>
       <c r="C86" s="2">
-        <v>15.32036537858847</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -1396,10 +1492,11 @@
         <v>21</v>
       </c>
       <c r="C87" s="2">
-        <v>60.896377801926697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -1407,10 +1504,11 @@
         <v>22</v>
       </c>
       <c r="C88" s="2">
-        <v>73.927280312413188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -1418,10 +1516,11 @@
         <v>23</v>
       </c>
       <c r="C89" s="2">
-        <v>58.537944848351117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5</v>
       </c>
@@ -1429,10 +1528,11 @@
         <v>1</v>
       </c>
       <c r="C90" s="2">
-        <v>59.994851701972571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -1440,10 +1540,11 @@
         <v>2</v>
       </c>
       <c r="C91" s="2">
-        <v>157.4434795483823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5</v>
       </c>
@@ -1451,10 +1552,11 @@
         <v>3</v>
       </c>
       <c r="C92" s="2">
-        <v>146.37601087361659</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5</v>
       </c>
@@ -1462,10 +1564,11 @@
         <v>4</v>
       </c>
       <c r="C93" s="2">
-        <v>278.81801025155141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5</v>
       </c>
@@ -1473,10 +1576,11 @@
         <v>6</v>
       </c>
       <c r="C94" s="2">
-        <v>60.698203684749018</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5</v>
       </c>
@@ -1484,10 +1588,11 @@
         <v>7</v>
       </c>
       <c r="C95" s="2">
-        <v>44.499284925202019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1495,10 +1600,11 @@
         <v>8</v>
       </c>
       <c r="C96" s="2">
-        <v>80.458568909205525</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -1506,10 +1612,11 @@
         <v>9</v>
       </c>
       <c r="C97" s="2">
-        <v>119.1445757037869</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -1517,10 +1624,11 @@
         <v>10</v>
       </c>
       <c r="C98" s="2">
-        <v>181.22857610135691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5</v>
       </c>
@@ -1528,10 +1636,11 @@
         <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>95.905246286862194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
@@ -1539,10 +1648,11 @@
         <v>12</v>
       </c>
       <c r="C100" s="2">
-        <v>96.891812592260905</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5</v>
       </c>
@@ -1550,10 +1660,11 @@
         <v>13</v>
       </c>
       <c r="C101" s="2">
-        <v>125.642641388176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5</v>
       </c>
@@ -1561,10 +1672,11 @@
         <v>14</v>
       </c>
       <c r="C102" s="2">
-        <v>143.51041256327321</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5</v>
       </c>
@@ -1572,10 +1684,11 @@
         <v>15</v>
       </c>
       <c r="C103" s="2">
-        <v>145.98274871068949</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5</v>
       </c>
@@ -1583,10 +1696,11 @@
         <v>16</v>
       </c>
       <c r="C104" s="2">
-        <v>152.86552155703231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -1594,10 +1708,11 @@
         <v>17</v>
       </c>
       <c r="C105" s="2">
-        <v>183.78883402757481</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -1605,10 +1720,11 @@
         <v>18</v>
       </c>
       <c r="C106" s="2">
-        <v>207.71450048634969</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5</v>
       </c>
@@ -1616,10 +1732,11 @@
         <v>19</v>
       </c>
       <c r="C107" s="2">
-        <v>280.91347167668232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -1627,10 +1744,11 @@
         <v>20</v>
       </c>
       <c r="C108" s="2">
-        <v>294.11187198110588</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5</v>
       </c>
@@ -1638,10 +1756,11 @@
         <v>21</v>
       </c>
       <c r="C109" s="2">
-        <v>333.30768471715572</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -1649,10 +1768,11 @@
         <v>22</v>
       </c>
       <c r="C110" s="2">
-        <v>352.32906496191322</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -1660,10 +1780,11 @@
         <v>23</v>
       </c>
       <c r="C111" s="2">
-        <v>304.97980131534371</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -1671,10 +1792,11 @@
         <v>1</v>
       </c>
       <c r="C112" s="2">
-        <v>55.614109056324921</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -1682,10 +1804,11 @@
         <v>2</v>
       </c>
       <c r="C113" s="2">
-        <v>130.65518378014241</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6</v>
       </c>
@@ -1693,10 +1816,11 @@
         <v>3</v>
       </c>
       <c r="C114" s="2">
-        <v>153.68561077589959</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6</v>
       </c>
@@ -1704,10 +1828,11 @@
         <v>4</v>
       </c>
       <c r="C115" s="2">
-        <v>274.00825469727948</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6</v>
       </c>
@@ -1715,10 +1840,11 @@
         <v>5</v>
       </c>
       <c r="C116" s="2">
-        <v>60.698203684749018</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>6</v>
       </c>
@@ -1726,10 +1852,11 @@
         <v>7</v>
       </c>
       <c r="C117" s="2">
-        <v>37.875420481448991</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>6</v>
       </c>
@@ -1737,10 +1864,11 @@
         <v>8</v>
       </c>
       <c r="C118" s="2">
-        <v>51.420565147827553</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -1748,10 +1876,11 @@
         <v>9</v>
       </c>
       <c r="C119" s="2">
-        <v>78.310776162242036</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>6</v>
       </c>
@@ -1759,10 +1888,11 @@
         <v>10</v>
       </c>
       <c r="C120" s="2">
-        <v>137.94600175689499</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -1770,10 +1900,11 @@
         <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>86.236712401587255</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6</v>
       </c>
@@ -1781,10 +1912,11 @@
         <v>12</v>
       </c>
       <c r="C122" s="2">
-        <v>104.5836018113138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6</v>
       </c>
@@ -1792,10 +1924,11 @@
         <v>13</v>
       </c>
       <c r="C123" s="2">
-        <v>150.92024129145619</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6</v>
       </c>
@@ -1803,10 +1936,11 @@
         <v>14</v>
       </c>
       <c r="C124" s="2">
-        <v>171.15489759498971</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -1814,10 +1948,11 @@
         <v>15</v>
       </c>
       <c r="C125" s="2">
-        <v>141.52043798496311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6</v>
       </c>
@@ -1825,10 +1960,11 @@
         <v>16</v>
       </c>
       <c r="C126" s="2">
-        <v>152.4967862136902</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -1836,10 +1972,11 @@
         <v>17</v>
       </c>
       <c r="C127" s="2">
-        <v>205.74500558756179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -1847,10 +1984,11 @@
         <v>18</v>
       </c>
       <c r="C128" s="2">
-        <v>191.17003947166819</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -1858,10 +1996,11 @@
         <v>19</v>
       </c>
       <c r="C129" s="2">
-        <v>261.53232143880422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6</v>
       </c>
@@ -1869,10 +2008,11 @@
         <v>20</v>
       </c>
       <c r="C130" s="2">
-        <v>288.76392726377748</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6</v>
       </c>
@@ -1880,10 +2020,11 @@
         <v>21</v>
       </c>
       <c r="C131" s="2">
-        <v>322.00034315520901</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -1891,10 +2032,11 @@
         <v>22</v>
       </c>
       <c r="C132" s="2">
-        <v>347.64480714944227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -1902,10 +2044,11 @@
         <v>23</v>
       </c>
       <c r="C133" s="2">
-        <v>310.44306420046081</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -1913,10 +2056,11 @@
         <v>1</v>
       </c>
       <c r="C134" s="2">
-        <v>21.39212952587323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -1924,10 +2068,11 @@
         <v>2</v>
       </c>
       <c r="C135" s="2">
-        <v>115.0149927912674</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -1935,10 +2080,11 @@
         <v>3</v>
       </c>
       <c r="C136" s="2">
-        <v>120.3158256333855</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -1946,10 +2092,11 @@
         <v>4</v>
       </c>
       <c r="C137" s="2">
-        <v>246.81429771824949</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -1957,10 +2104,11 @@
         <v>5</v>
       </c>
       <c r="C138" s="2">
-        <v>44.499284925202019</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -1968,10 +2116,11 @@
         <v>6</v>
       </c>
       <c r="C139" s="2">
-        <v>37.875420481448991</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -1979,10 +2128,11 @@
         <v>8</v>
       </c>
       <c r="C140" s="2">
-        <v>35.982940942068147</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -1990,10 +2140,11 @@
         <v>9</v>
       </c>
       <c r="C141" s="2">
-        <v>74.728323210668691</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -2001,10 +2152,11 @@
         <v>10</v>
       </c>
       <c r="C142" s="2">
-        <v>136.74125865689189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -2012,10 +2164,11 @@
         <v>11</v>
       </c>
       <c r="C143" s="2">
-        <v>57.961792961998512</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -2023,10 +2176,11 @@
         <v>12</v>
       </c>
       <c r="C144" s="2">
-        <v>69.773147170486524</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -2034,10 +2188,11 @@
         <v>13</v>
       </c>
       <c r="C145" s="2">
-        <v>113.4663536361038</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -2045,10 +2200,11 @@
         <v>14</v>
       </c>
       <c r="C146" s="2">
-        <v>133.5885140007104</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
@@ -2056,10 +2212,11 @@
         <v>15</v>
       </c>
       <c r="C147" s="2">
-        <v>112.6166106331579</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -2067,10 +2224,11 @@
         <v>16</v>
       </c>
       <c r="C148" s="2">
-        <v>122.0053894976228</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -2078,10 +2236,11 @@
         <v>17</v>
       </c>
       <c r="C149" s="2">
-        <v>169.18748081164071</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7</v>
       </c>
@@ -2089,10 +2248,11 @@
         <v>18</v>
       </c>
       <c r="C150" s="2">
-        <v>169.4798973111744</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>7</v>
       </c>
@@ -2100,10 +2260,11 @@
         <v>19</v>
       </c>
       <c r="C151" s="2">
-        <v>242.08209422959641</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>7</v>
       </c>
@@ -2111,10 +2272,11 @@
         <v>20</v>
       </c>
       <c r="C152" s="2">
-        <v>261.90574262104712</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7</v>
       </c>
@@ -2122,10 +2284,11 @@
         <v>21</v>
       </c>
       <c r="C153" s="2">
-        <v>298.26473583156019</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -2133,10 +2296,11 @@
         <v>22</v>
       </c>
       <c r="C154" s="2">
-        <v>320.74151717186851</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>7</v>
       </c>
@@ -2144,10 +2308,11 @@
         <v>23</v>
       </c>
       <c r="C155" s="2">
-        <v>279.15209283616088</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -2155,10 +2320,11 @@
         <v>1</v>
       </c>
       <c r="C156" s="2">
-        <v>27.473281538762748</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8</v>
       </c>
@@ -2166,10 +2332,11 @@
         <v>2</v>
       </c>
       <c r="C157" s="2">
-        <v>81.50984846823394</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>8</v>
       </c>
@@ -2177,10 +2344,11 @@
         <v>3</v>
       </c>
       <c r="C158" s="2">
-        <v>106.6904744621568</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8</v>
       </c>
@@ -2188,10 +2356,11 @@
         <v>4</v>
       </c>
       <c r="C159" s="2">
-        <v>222.68027065339069</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8</v>
       </c>
@@ -2199,10 +2368,11 @@
         <v>5</v>
       </c>
       <c r="C160" s="2">
-        <v>80.458568909205525</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -2210,10 +2380,11 @@
         <v>6</v>
       </c>
       <c r="C161" s="2">
-        <v>51.420565147827553</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8</v>
       </c>
@@ -2221,10 +2392,11 @@
         <v>7</v>
       </c>
       <c r="C162" s="2">
-        <v>35.982940942068147</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>8</v>
       </c>
@@ -2232,10 +2404,11 @@
         <v>9</v>
       </c>
       <c r="C163" s="2">
-        <v>39.291152827277173</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>8</v>
       </c>
@@ -2243,10 +2416,11 @@
         <v>10</v>
       </c>
       <c r="C164" s="2">
-        <v>100.8972198095841</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>8</v>
       </c>
@@ -2254,10 +2428,11 @@
         <v>11</v>
       </c>
       <c r="C165" s="2">
-        <v>37.461597986696269</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>8</v>
       </c>
@@ -2265,10 +2440,11 @@
         <v>12</v>
       </c>
       <c r="C166" s="2">
-        <v>62.358719006816891</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>8</v>
       </c>
@@ -2276,10 +2452,11 @@
         <v>13</v>
       </c>
       <c r="C167" s="2">
-        <v>114.1090208503942</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>8</v>
       </c>
@@ -2287,10 +2464,11 @@
         <v>14</v>
       </c>
       <c r="C168" s="2">
-        <v>134.3568768681171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>8</v>
       </c>
@@ -2298,10 +2476,11 @@
         <v>15</v>
       </c>
       <c r="C169" s="2">
-        <v>91.17067712855625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>8</v>
       </c>
@@ -2309,10 +2488,11 @@
         <v>16</v>
       </c>
       <c r="C170" s="2">
-        <v>102.8864259466304</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8</v>
       </c>
@@ -2320,10 +2500,11 @@
         <v>17</v>
       </c>
       <c r="C171" s="2">
-        <v>163.6327211616551</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>8</v>
       </c>
@@ -2331,10 +2512,11 @@
         <v>18</v>
       </c>
       <c r="C172" s="2">
-        <v>140.11941894967021</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>8</v>
       </c>
@@ -2342,10 +2524,11 @@
         <v>19</v>
       </c>
       <c r="C173" s="2">
-        <v>211.30309227802729</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>8</v>
       </c>
@@ -2353,10 +2536,11 @@
         <v>20</v>
       </c>
       <c r="C174" s="2">
-        <v>237.3920232143675</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>8</v>
       </c>
@@ -2364,10 +2548,11 @@
         <v>21</v>
       </c>
       <c r="C175" s="2">
-        <v>270.73908184829878</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>8</v>
       </c>
@@ -2375,10 +2560,11 @@
         <v>22</v>
       </c>
       <c r="C176" s="2">
-        <v>296.25684730184702</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -2386,10 +2572,11 @@
         <v>23</v>
       </c>
       <c r="C177" s="2">
-        <v>260.39022042516632</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -2397,10 +2584,11 @@
         <v>1</v>
       </c>
       <c r="C178" s="2">
-        <v>65.516353058523222</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9</v>
       </c>
@@ -2408,10 +2596,11 @@
         <v>2</v>
       </c>
       <c r="C179" s="2">
-        <v>56.921127844092787</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>9</v>
       </c>
@@ -2419,10 +2608,11 @@
         <v>3</v>
       </c>
       <c r="C180" s="2">
-        <v>113.87283077138351</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>9</v>
       </c>
@@ -2430,10 +2620,11 @@
         <v>4</v>
       </c>
       <c r="C181" s="2">
-        <v>209.15980527369911</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>9</v>
       </c>
@@ -2441,10 +2632,11 @@
         <v>5</v>
       </c>
       <c r="C182" s="2">
-        <v>119.1445757037869</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>9</v>
       </c>
@@ -2452,10 +2644,11 @@
         <v>6</v>
       </c>
       <c r="C183" s="2">
-        <v>78.310776162242036</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>9</v>
       </c>
@@ -2463,10 +2656,11 @@
         <v>7</v>
       </c>
       <c r="C184" s="2">
-        <v>74.728323210668691</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>9</v>
       </c>
@@ -2474,10 +2668,11 @@
         <v>8</v>
       </c>
       <c r="C185" s="2">
-        <v>39.291152827277173</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>9</v>
       </c>
@@ -2485,10 +2680,11 @@
         <v>10</v>
       </c>
       <c r="C186" s="2">
-        <v>62.222383414226982</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>9</v>
       </c>
@@ -2496,10 +2692,11 @@
         <v>11</v>
       </c>
       <c r="C187" s="2">
-        <v>54.107174044536293</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>9</v>
       </c>
@@ -2507,10 +2704,11 @@
         <v>12</v>
       </c>
       <c r="C188" s="2">
-        <v>83.272009090581875</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>9</v>
       </c>
@@ -2518,10 +2716,11 @@
         <v>13</v>
       </c>
       <c r="C189" s="2">
-        <v>134.9128083959701</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>9</v>
       </c>
@@ -2529,10 +2728,11 @@
         <v>14</v>
       </c>
       <c r="C190" s="2">
-        <v>153.87775571025551</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>9</v>
       </c>
@@ -2540,10 +2740,11 @@
         <v>15</v>
       </c>
       <c r="C191" s="2">
-        <v>90.036147628499549</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>9</v>
       </c>
@@ -2551,10 +2752,11 @@
         <v>16</v>
       </c>
       <c r="C192" s="2">
-        <v>103.4815103238175</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>9</v>
       </c>
@@ -2562,10 +2764,11 @@
         <v>17</v>
       </c>
       <c r="C193" s="2">
-        <v>175.5005340375389</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>9</v>
       </c>
@@ -2573,10 +2776,11 @@
         <v>18</v>
       </c>
       <c r="C194" s="2">
-        <v>120.74923802539089</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>9</v>
       </c>
@@ -2584,10 +2788,11 @@
         <v>19</v>
       </c>
       <c r="C195" s="2">
-        <v>186.9934630137794</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>9</v>
       </c>
@@ -2595,10 +2800,11 @@
         <v>20</v>
       </c>
       <c r="C196" s="2">
-        <v>222.96957900996139</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>9</v>
       </c>
@@ -2606,10 +2812,11 @@
         <v>21</v>
       </c>
       <c r="C197" s="2">
-        <v>251.08217962917001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9</v>
       </c>
@@ -2617,10 +2824,11 @@
         <v>22</v>
       </c>
       <c r="C198" s="2">
-        <v>280.89682057052403</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>9</v>
       </c>
@@ -2628,10 +2836,11 @@
         <v>23</v>
       </c>
       <c r="C199" s="2">
-        <v>253.57045038418201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10</v>
       </c>
@@ -2639,10 +2848,11 @@
         <v>1</v>
       </c>
       <c r="C200" s="2">
-        <v>125.34527733786</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>10</v>
       </c>
@@ -2650,10 +2860,11 @@
         <v>2</v>
       </c>
       <c r="C201" s="2">
-        <v>52.87056089579049</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>10</v>
       </c>
@@ -2661,10 +2872,11 @@
         <v>3</v>
       </c>
       <c r="C202" s="2">
-        <v>136.69614593473329</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>10</v>
       </c>
@@ -2672,10 +2884,11 @@
         <v>4</v>
       </c>
       <c r="C203" s="2">
-        <v>188.02241395504959</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>10</v>
       </c>
@@ -2683,10 +2896,11 @@
         <v>5</v>
       </c>
       <c r="C204" s="2">
-        <v>181.22857610135691</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>10</v>
       </c>
@@ -2694,10 +2908,11 @@
         <v>6</v>
       </c>
       <c r="C205" s="2">
-        <v>137.94600175689499</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>10</v>
       </c>
@@ -2705,10 +2920,11 @@
         <v>7</v>
       </c>
       <c r="C206" s="2">
-        <v>136.74125865689189</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>10</v>
       </c>
@@ -2716,10 +2932,11 @@
         <v>8</v>
       </c>
       <c r="C207" s="2">
-        <v>100.8972198095841</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>10</v>
       </c>
@@ -2727,10 +2944,11 @@
         <v>9</v>
       </c>
       <c r="C208" s="2">
-        <v>62.222383414226982</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10</v>
       </c>
@@ -2738,10 +2956,11 @@
         <v>11</v>
       </c>
       <c r="C209" s="2">
-        <v>102.4085320311252</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>10</v>
       </c>
@@ -2749,10 +2968,11 @@
         <v>12</v>
       </c>
       <c r="C210" s="2">
-        <v>127.3985796951888</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>10</v>
       </c>
@@ -2760,10 +2980,11 @@
         <v>13</v>
       </c>
       <c r="C211" s="2">
-        <v>171.8634080960878</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10</v>
       </c>
@@ -2771,10 +2992,11 @@
         <v>14</v>
       </c>
       <c r="C212" s="2">
-        <v>187.49583963441549</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>10</v>
       </c>
@@ -2782,10 +3004,11 @@
         <v>15</v>
       </c>
       <c r="C213" s="2">
-        <v>107.5819509640299</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>10</v>
       </c>
@@ -2793,10 +3016,11 @@
         <v>16</v>
       </c>
       <c r="C214" s="2">
-        <v>119.67869510407481</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>10</v>
       </c>
@@ -2804,10 +3028,11 @@
         <v>17</v>
       </c>
       <c r="C215" s="2">
-        <v>196.92900270434001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>10</v>
       </c>
@@ -2815,10 +3040,11 @@
         <v>18</v>
       </c>
       <c r="C216" s="2">
-        <v>99.513299363501403</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>10</v>
       </c>
@@ -2826,10 +3052,11 @@
         <v>19</v>
       </c>
       <c r="C217" s="2">
-        <v>148.08717376870979</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>10</v>
       </c>
@@ -2837,10 +3064,11 @@
         <v>20</v>
       </c>
       <c r="C218" s="2">
-        <v>199.41071013198149</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>10</v>
       </c>
@@ -2848,10 +3076,11 @@
         <v>21</v>
       </c>
       <c r="C219" s="2">
-        <v>217.19774446563301</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10</v>
       </c>
@@ -2859,10 +3088,11 @@
         <v>22</v>
       </c>
       <c r="C220" s="2">
-        <v>253.1297384185396</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -2870,10 +3100,11 @@
         <v>23</v>
       </c>
       <c r="C221" s="2">
-        <v>241.0286175896432</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>11</v>
       </c>
@@ -2881,10 +3112,11 @@
         <v>1</v>
       </c>
       <c r="C222" s="2">
-        <v>37.166612693541431</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>11</v>
       </c>
@@ -2892,10 +3124,11 @@
         <v>2</v>
       </c>
       <c r="C223" s="2">
-        <v>64.322972713139578</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11</v>
       </c>
@@ -2903,10 +3136,11 @@
         <v>3</v>
       </c>
       <c r="C224" s="2">
-        <v>69.232671575389702</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11</v>
       </c>
@@ -2914,10 +3148,11 @@
         <v>4</v>
       </c>
       <c r="C225" s="2">
-        <v>189.2536398719443</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>11</v>
       </c>
@@ -2925,10 +3160,11 @@
         <v>5</v>
       </c>
       <c r="C226" s="2">
-        <v>95.905246286862194</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>11</v>
       </c>
@@ -2936,10 +3172,11 @@
         <v>6</v>
       </c>
       <c r="C227" s="2">
-        <v>86.236712401587255</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>11</v>
       </c>
@@ -2947,10 +3184,11 @@
         <v>7</v>
       </c>
       <c r="C228" s="2">
-        <v>57.961792961998512</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>11</v>
       </c>
@@ -2958,10 +3196,11 @@
         <v>8</v>
       </c>
       <c r="C229" s="2">
-        <v>37.461597986696269</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>11</v>
       </c>
@@ -2969,10 +3208,11 @@
         <v>9</v>
       </c>
       <c r="C230" s="2">
-        <v>54.107174044536293</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>11</v>
       </c>
@@ -2980,10 +3220,11 @@
         <v>10</v>
       </c>
       <c r="C231" s="2">
-        <v>102.4085320311252</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>11</v>
       </c>
@@ -2991,10 +3232,11 @@
         <v>12</v>
       </c>
       <c r="C232" s="2">
-        <v>29.22873143817451</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>11</v>
       </c>
@@ -3002,10 +3244,11 @@
         <v>13</v>
       </c>
       <c r="C233" s="2">
-        <v>81.441989482480082</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>11</v>
       </c>
@@ -3013,10 +3256,11 @@
         <v>14</v>
       </c>
       <c r="C234" s="2">
-        <v>100.9846591724242</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>11</v>
       </c>
@@ -3024,10 +3268,11 @@
         <v>15</v>
       </c>
       <c r="C235" s="2">
-        <v>55.502081346503907</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>11</v>
       </c>
@@ -3035,10 +3280,11 @@
         <v>16</v>
       </c>
       <c r="C236" s="2">
-        <v>66.268824369121006</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>11</v>
       </c>
@@ -3046,10 +3292,11 @@
         <v>17</v>
       </c>
       <c r="C237" s="2">
-        <v>127.1436722798429</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>11</v>
       </c>
@@ -3057,10 +3304,11 @@
         <v>18</v>
       </c>
       <c r="C238" s="2">
-        <v>112.2038680587839</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>11</v>
       </c>
@@ -3068,10 +3316,11 @@
         <v>19</v>
       </c>
       <c r="C239" s="2">
-        <v>185.24702753761281</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11</v>
       </c>
@@ -3079,10 +3328,11 @@
         <v>20</v>
       </c>
       <c r="C240" s="2">
-        <v>204.262838265651</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>11</v>
       </c>
@@ -3090,10 +3340,11 @@
         <v>21</v>
       </c>
       <c r="C241" s="2">
-        <v>240.31349181873361</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>11</v>
       </c>
@@ -3101,10 +3352,11 @@
         <v>22</v>
       </c>
       <c r="C242" s="2">
-        <v>263.15694137517391</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>11</v>
       </c>
@@ -3112,10 +3364,11 @@
         <v>23</v>
       </c>
       <c r="C243" s="2">
-        <v>224.20701121183529</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>12</v>
       </c>
@@ -3123,10 +3376,11 @@
         <v>1</v>
       </c>
       <c r="C244" s="2">
-        <v>49.220848667825543</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>12</v>
       </c>
@@ -3134,10 +3388,11 @@
         <v>2</v>
       </c>
       <c r="C245" s="2">
-        <v>82.423016692668725</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>12</v>
       </c>
@@ -3145,10 +3400,11 @@
         <v>3</v>
       </c>
       <c r="C246" s="2">
-        <v>50.854010218408263</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>12</v>
       </c>
@@ -3156,10 +3412,11 @@
         <v>4</v>
       </c>
       <c r="C247" s="2">
-        <v>181.9289016499439</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>12</v>
       </c>
@@ -3167,10 +3424,11 @@
         <v>5</v>
       </c>
       <c r="C248" s="2">
-        <v>96.891812592260905</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>12</v>
       </c>
@@ -3178,10 +3436,11 @@
         <v>6</v>
       </c>
       <c r="C249" s="2">
-        <v>104.5836018113138</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>12</v>
       </c>
@@ -3189,10 +3448,11 @@
         <v>7</v>
       </c>
       <c r="C250" s="2">
-        <v>69.773147170486524</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>12</v>
       </c>
@@ -3200,10 +3460,11 @@
         <v>8</v>
       </c>
       <c r="C251" s="2">
-        <v>62.358719006816891</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>12</v>
       </c>
@@ -3211,10 +3472,11 @@
         <v>9</v>
       </c>
       <c r="C252" s="2">
-        <v>83.272009090581875</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>12</v>
       </c>
@@ -3222,10 +3484,11 @@
         <v>10</v>
       </c>
       <c r="C253" s="2">
-        <v>127.3985796951888</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>12</v>
       </c>
@@ -3233,10 +3496,11 @@
         <v>11</v>
       </c>
       <c r="C254" s="2">
-        <v>29.22873143817451</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>12</v>
       </c>
@@ -3244,10 +3508,11 @@
         <v>13</v>
       </c>
       <c r="C255" s="2">
-        <v>52.518147462190854</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12</v>
       </c>
@@ -3255,10 +3520,11 @@
         <v>14</v>
       </c>
       <c r="C256" s="2">
-        <v>72.422593585671393</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>12</v>
       </c>
@@ -3266,10 +3532,11 @@
         <v>15</v>
       </c>
       <c r="C257" s="2">
-        <v>50.555168344778338</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>12</v>
       </c>
@@ -3277,10 +3544,11 @@
         <v>16</v>
       </c>
       <c r="C258" s="2">
-        <v>56.047167625145079</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>12</v>
       </c>
@@ -3288,10 +3556,11 @@
         <v>17</v>
       </c>
       <c r="C259" s="2">
-        <v>101.96435922692829</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>12</v>
       </c>
@@ -3299,10 +3568,11 @@
         <v>18</v>
       </c>
       <c r="C260" s="2">
-        <v>115.81171968692649</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>12</v>
       </c>
@@ -3310,10 +3580,11 @@
         <v>19</v>
       </c>
       <c r="C261" s="2">
-        <v>188.45414162841479</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>12</v>
       </c>
@@ -3321,10 +3592,11 @@
         <v>20</v>
       </c>
       <c r="C262" s="2">
-        <v>197.22614815202081</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>12</v>
       </c>
@@ -3332,10 +3604,11 @@
         <v>21</v>
       </c>
       <c r="C263" s="2">
-        <v>237.03430122468311</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>12</v>
       </c>
@@ -3343,10 +3616,11 @@
         <v>22</v>
       </c>
       <c r="C264" s="2">
-        <v>255.46127138332201</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>12</v>
       </c>
@@ -3354,10 +3628,11 @@
         <v>23</v>
       </c>
       <c r="C265" s="2">
-        <v>210.21616965910741</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>13</v>
       </c>
@@ -3365,10 +3640,11 @@
         <v>1</v>
       </c>
       <c r="C266" s="2">
-        <v>96.068372374930291</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>13</v>
       </c>
@@ -3376,10 +3652,11 @@
         <v>2</v>
       </c>
       <c r="C267" s="2">
-        <v>121.2177126439359</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>13</v>
       </c>
@@ -3387,10 +3664,11 @@
         <v>3</v>
       </c>
       <c r="C268" s="2">
-        <v>45.828639367621243</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>13</v>
       </c>
@@ -3398,10 +3676,11 @@
         <v>4</v>
       </c>
       <c r="C269" s="2">
-        <v>170.84253181581781</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>13</v>
       </c>
@@ -3409,10 +3688,11 @@
         <v>5</v>
       </c>
       <c r="C270" s="2">
-        <v>125.642641388176</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>13</v>
       </c>
@@ -3420,10 +3700,11 @@
         <v>6</v>
       </c>
       <c r="C271" s="2">
-        <v>150.92024129145619</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>13</v>
       </c>
@@ -3431,10 +3712,11 @@
         <v>7</v>
       </c>
       <c r="C272" s="2">
-        <v>113.4663536361038</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>13</v>
       </c>
@@ -3442,10 +3724,11 @@
         <v>8</v>
       </c>
       <c r="C273" s="2">
-        <v>114.1090208503942</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>13</v>
       </c>
@@ -3453,10 +3736,11 @@
         <v>9</v>
       </c>
       <c r="C274" s="2">
-        <v>134.9128083959701</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>13</v>
       </c>
@@ -3464,10 +3748,11 @@
         <v>10</v>
       </c>
       <c r="C275" s="2">
-        <v>171.8634080960878</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>13</v>
       </c>
@@ -3475,10 +3760,11 @@
         <v>11</v>
       </c>
       <c r="C276" s="2">
-        <v>81.441989482480082</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>13</v>
       </c>
@@ -3486,10 +3772,11 @@
         <v>12</v>
       </c>
       <c r="C277" s="2">
-        <v>52.518147462190854</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>13</v>
       </c>
@@ -3497,10 +3784,11 @@
         <v>14</v>
       </c>
       <c r="C278" s="2">
-        <v>20.407289779165961</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>13</v>
       </c>
@@ -3508,10 +3796,11 @@
         <v>15</v>
       </c>
       <c r="C279" s="2">
-        <v>70.360030831748745</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>13</v>
       </c>
@@ -3519,10 +3808,11 @@
         <v>16</v>
       </c>
       <c r="C280" s="2">
-        <v>64.433675024972203</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>13</v>
       </c>
@@ -3530,10 +3820,11 @@
         <v>17</v>
       </c>
       <c r="C281" s="2">
-        <v>58.146610088489759</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D281" s="2"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>13</v>
       </c>
@@ -3541,10 +3832,11 @@
         <v>18</v>
       </c>
       <c r="C282" s="2">
-        <v>130.46719053058811</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="D282" s="2"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>13</v>
       </c>
@@ -3552,10 +3844,11 @@
         <v>19</v>
       </c>
       <c r="C283" s="2">
-        <v>195.9968732533477</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="D283" s="2"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>13</v>
       </c>
@@ -3563,10 +3856,11 @@
         <v>20</v>
       </c>
       <c r="C284" s="2">
-        <v>185.7760276550267</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="D284" s="2"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>13</v>
       </c>
@@ -3574,10 +3868,11 @@
         <v>21</v>
       </c>
       <c r="C285" s="2">
-        <v>230.71262510560649</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="D285" s="2"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>13</v>
       </c>
@@ -3585,10 +3880,11 @@
         <v>22</v>
       </c>
       <c r="C286" s="2">
-        <v>240.3536776283722</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>13</v>
       </c>
@@ -3596,10 +3892,11 @@
         <v>23</v>
       </c>
       <c r="C287" s="2">
-        <v>184.74764799244309</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="D287" s="2"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>14</v>
       </c>
@@ -3607,10 +3904,11 @@
         <v>1</v>
       </c>
       <c r="C288" s="2">
-        <v>116.44285861102379</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="D288" s="2"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>14</v>
       </c>
@@ -3618,10 +3916,11 @@
         <v>2</v>
       </c>
       <c r="C289" s="2">
-        <v>135.68289507352409</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D289" s="2"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>14</v>
       </c>
@@ -3629,10 +3928,11 @@
         <v>3</v>
       </c>
       <c r="C290" s="2">
-        <v>54.246190567471722</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D290" s="2"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>14</v>
       </c>
@@ -3640,10 +3940,11 @@
         <v>4</v>
       </c>
       <c r="C291" s="2">
-        <v>165.43691909502459</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="D291" s="2"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>14</v>
       </c>
@@ -3651,10 +3952,11 @@
         <v>5</v>
       </c>
       <c r="C292" s="2">
-        <v>143.51041256327321</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D292" s="2"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>14</v>
       </c>
@@ -3662,10 +3964,11 @@
         <v>6</v>
       </c>
       <c r="C293" s="2">
-        <v>171.15489759498971</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="D293" s="2"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>14</v>
       </c>
@@ -3673,10 +3976,11 @@
         <v>7</v>
       </c>
       <c r="C294" s="2">
-        <v>133.5885140007104</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D294" s="2"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>14</v>
       </c>
@@ -3684,10 +3988,11 @@
         <v>8</v>
       </c>
       <c r="C295" s="2">
-        <v>134.3568768681171</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D295" s="2"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>14</v>
       </c>
@@ -3695,10 +4000,11 @@
         <v>9</v>
       </c>
       <c r="C296" s="2">
-        <v>153.87775571025551</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D296" s="2"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>14</v>
       </c>
@@ -3706,10 +4012,11 @@
         <v>10</v>
       </c>
       <c r="C297" s="2">
-        <v>187.49583963441549</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D297" s="2"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>14</v>
       </c>
@@ -3717,10 +4024,11 @@
         <v>11</v>
       </c>
       <c r="C298" s="2">
-        <v>100.9846591724242</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D298" s="2"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>14</v>
       </c>
@@ -3728,10 +4036,11 @@
         <v>12</v>
       </c>
       <c r="C299" s="2">
-        <v>72.422593585671393</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="D299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>14</v>
       </c>
@@ -3739,10 +4048,11 @@
         <v>13</v>
       </c>
       <c r="C300" s="2">
-        <v>20.407289779165961</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D300" s="2"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>14</v>
       </c>
@@ -3750,10 +4060,11 @@
         <v>15</v>
       </c>
       <c r="C301" s="2">
-        <v>82.268043955078141</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D301" s="2"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>14</v>
       </c>
@@ -3761,10 +4072,11 @@
         <v>16</v>
       </c>
       <c r="C302" s="2">
-        <v>73.600596606803634</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D302" s="2"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>14</v>
       </c>
@@ -3772,10 +4084,11 @@
         <v>17</v>
       </c>
       <c r="C303" s="2">
-        <v>41.940173413607639</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D303" s="2"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>14</v>
       </c>
@@ -3783,10 +4096,11 @@
         <v>18</v>
       </c>
       <c r="C304" s="2">
-        <v>136.4083627085725</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D304" s="2"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>14</v>
       </c>
@@ -3794,10 +4108,11 @@
         <v>19</v>
       </c>
       <c r="C305" s="2">
-        <v>197.39163655414069</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D305" s="2"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>14</v>
       </c>
@@ -3805,10 +4120,11 @@
         <v>20</v>
       </c>
       <c r="C306" s="2">
-        <v>179.89486232193059</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="D306" s="2"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>14</v>
       </c>
@@ -3816,10 +4132,11 @@
         <v>21</v>
       </c>
       <c r="C307" s="2">
-        <v>226.12449013260081</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D307" s="2"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>14</v>
       </c>
@@ -3827,10 +4144,11 @@
         <v>22</v>
       </c>
       <c r="C308" s="2">
-        <v>232.19675215802349</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="D308" s="2"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>14</v>
       </c>
@@ -3838,10 +4156,11 @@
         <v>23</v>
       </c>
       <c r="C309" s="2">
-        <v>173.20247448661669</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="D309" s="2"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>15</v>
       </c>
@@ -3849,10 +4168,11 @@
         <v>1</v>
       </c>
       <c r="C310" s="2">
-        <v>91.287383825125744</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D310" s="2"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>15</v>
       </c>
@@ -3860,10 +4180,11 @@
         <v>2</v>
       </c>
       <c r="C311" s="2">
-        <v>54.765715529973129</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D311" s="2"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>15</v>
       </c>
@@ -3871,10 +4192,11 @@
         <v>3</v>
       </c>
       <c r="C312" s="2">
-        <v>29.203003773000709</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D312" s="2"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>15</v>
       </c>
@@ -3882,10 +4204,11 @@
         <v>4</v>
       </c>
       <c r="C313" s="2">
-        <v>134.22634116216719</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="D313" s="2"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>15</v>
       </c>
@@ -3893,10 +4216,11 @@
         <v>5</v>
       </c>
       <c r="C314" s="2">
-        <v>145.98274871068949</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D314" s="2"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>15</v>
       </c>
@@ -3904,10 +4228,11 @@
         <v>6</v>
       </c>
       <c r="C315" s="2">
-        <v>141.52043798496311</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="D315" s="2"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>15</v>
       </c>
@@ -3915,10 +4240,11 @@
         <v>7</v>
       </c>
       <c r="C316" s="2">
-        <v>112.6166106331579</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D316" s="2"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>15</v>
       </c>
@@ -3926,10 +4252,11 @@
         <v>8</v>
       </c>
       <c r="C317" s="2">
-        <v>91.17067712855625</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D317" s="2"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>15</v>
       </c>
@@ -3937,10 +4264,11 @@
         <v>9</v>
       </c>
       <c r="C318" s="2">
-        <v>90.036147628499549</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D318" s="2"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>15</v>
       </c>
@@ -3948,10 +4276,11 @@
         <v>10</v>
       </c>
       <c r="C319" s="2">
-        <v>107.5819509640299</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="D319" s="2"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>15</v>
       </c>
@@ -3959,10 +4288,11 @@
         <v>11</v>
       </c>
       <c r="C320" s="2">
-        <v>55.502081346503907</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D320" s="2"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>15</v>
       </c>
@@ -3970,10 +4300,11 @@
         <v>12</v>
       </c>
       <c r="C321" s="2">
-        <v>50.555168344778338</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D321" s="2"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>15</v>
       </c>
@@ -3981,10 +4312,11 @@
         <v>13</v>
       </c>
       <c r="C322" s="2">
-        <v>70.360030831748745</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D322" s="2"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>15</v>
       </c>
@@ -3992,10 +4324,11 @@
         <v>14</v>
       </c>
       <c r="C323" s="2">
-        <v>82.268043955078141</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D323" s="2"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>15</v>
       </c>
@@ -4003,10 +4336,11 @@
         <v>16</v>
       </c>
       <c r="C324" s="2">
-        <v>13.535149205003391</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D324" s="2"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>15</v>
       </c>
@@ -4014,10 +4348,11 @@
         <v>17</v>
       </c>
       <c r="C325" s="2">
-        <v>90.017979065081789</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D325" s="2"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>15</v>
       </c>
@@ -4025,10 +4360,11 @@
         <v>18</v>
       </c>
       <c r="C326" s="2">
-        <v>66.110455806440669</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>15</v>
       </c>
@@ -4036,10 +4372,11 @@
         <v>19</v>
       </c>
       <c r="C327" s="2">
-        <v>138.09645453511791</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="D327" s="2"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>15</v>
       </c>
@@ -4047,10 +4384,11 @@
         <v>20</v>
       </c>
       <c r="C328" s="2">
-        <v>149.36119274447859</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>15</v>
       </c>
@@ -4058,10 +4396,11 @@
         <v>21</v>
       </c>
       <c r="C329" s="2">
-        <v>187.3301803922466</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D329" s="2"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>15</v>
       </c>
@@ -4069,10 +4408,11 @@
         <v>22</v>
       </c>
       <c r="C330" s="2">
-        <v>208.1479543814655</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="D330" s="2"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>15</v>
       </c>
@@ -4080,10 +4420,11 @@
         <v>23</v>
       </c>
       <c r="C331" s="2">
-        <v>169.220035254078</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>16</v>
       </c>
@@ -4091,10 +4432,11 @@
         <v>1</v>
       </c>
       <c r="C332" s="2">
-        <v>100.6158575897788</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>16</v>
       </c>
@@ -4102,10 +4444,11 @@
         <v>2</v>
       </c>
       <c r="C333" s="2">
-        <v>66.829375708150565</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>16</v>
       </c>
@@ -4113,10 +4456,11 @@
         <v>3</v>
       </c>
       <c r="C334" s="2">
-        <v>19.365891833477932</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>16</v>
       </c>
@@ -4124,10 +4468,11 @@
         <v>4</v>
       </c>
       <c r="C335" s="2">
-        <v>126.00450937532349</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>16</v>
       </c>
@@ -4135,10 +4480,11 @@
         <v>5</v>
       </c>
       <c r="C336" s="2">
-        <v>152.86552155703231</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D336" s="2"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>16</v>
       </c>
@@ -4146,10 +4492,11 @@
         <v>6</v>
       </c>
       <c r="C337" s="2">
-        <v>152.4967862136902</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D337" s="2"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>16</v>
       </c>
@@ -4157,10 +4504,11 @@
         <v>7</v>
       </c>
       <c r="C338" s="2">
-        <v>122.0053894976228</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D338" s="2"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>16</v>
       </c>
@@ -4168,10 +4516,11 @@
         <v>8</v>
       </c>
       <c r="C339" s="2">
-        <v>102.8864259466304</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D339" s="2"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>16</v>
       </c>
@@ -4179,10 +4528,11 @@
         <v>9</v>
       </c>
       <c r="C340" s="2">
-        <v>103.4815103238175</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D340" s="2"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>16</v>
       </c>
@@ -4190,10 +4540,11 @@
         <v>10</v>
       </c>
       <c r="C341" s="2">
-        <v>119.67869510407481</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="D341" s="2"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>16</v>
       </c>
@@ -4201,10 +4552,11 @@
         <v>11</v>
       </c>
       <c r="C342" s="2">
-        <v>66.268824369121006</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D342" s="2"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>16</v>
       </c>
@@ -4212,10 +4564,11 @@
         <v>12</v>
       </c>
       <c r="C343" s="2">
-        <v>56.047167625145079</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D343" s="2"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>16</v>
       </c>
@@ -4223,10 +4576,11 @@
         <v>13</v>
       </c>
       <c r="C344" s="2">
-        <v>64.433675024972203</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D344" s="2"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>16</v>
       </c>
@@ -4234,10 +4588,11 @@
         <v>14</v>
       </c>
       <c r="C345" s="2">
-        <v>73.600596606803634</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D345" s="2"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>16</v>
       </c>
@@ -4245,10 +4600,11 @@
         <v>15</v>
       </c>
       <c r="C346" s="2">
-        <v>13.535149205003391</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D346" s="2"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>16</v>
       </c>
@@ -4256,10 +4612,11 @@
         <v>17</v>
       </c>
       <c r="C347" s="2">
-        <v>77.323207857336612</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="D347" s="2"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>16</v>
       </c>
@@ -4267,10 +4624,11 @@
         <v>18</v>
       </c>
       <c r="C348" s="2">
-        <v>66.762002180631214</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D348" s="2"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>16</v>
       </c>
@@ -4278,10 +4636,11 @@
         <v>19</v>
       </c>
       <c r="C349" s="2">
-        <v>136.12284221477611</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D349" s="2"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>16</v>
       </c>
@@ -4289,10 +4648,11 @@
         <v>20</v>
       </c>
       <c r="C350" s="2">
-        <v>141.27930622290239</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="D350" s="2"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>16</v>
       </c>
@@ -4300,10 +4660,11 @@
         <v>21</v>
       </c>
       <c r="C351" s="2">
-        <v>181.16585183106719</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="D351" s="2"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>16</v>
       </c>
@@ -4311,10 +4672,11 @@
         <v>22</v>
       </c>
       <c r="C352" s="2">
-        <v>199.70757478153081</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="D352" s="2"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>16</v>
       </c>
@@ -4322,10 +4684,11 @@
         <v>23</v>
       </c>
       <c r="C353" s="2">
-        <v>157.95179479550731</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="D353" s="2"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>17</v>
       </c>
@@ -4333,10 +4696,11 @@
         <v>1</v>
       </c>
       <c r="C354" s="2">
-        <v>150.14923437368421</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="D354" s="2"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>17</v>
       </c>
@@ -4344,10 +4708,11 @@
         <v>2</v>
       </c>
       <c r="C355" s="2">
-        <v>144.12538153999739</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="D355" s="2"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>17</v>
       </c>
@@ -4355,10 +4720,11 @@
         <v>3</v>
       </c>
       <c r="C356" s="2">
-        <v>62.180773637603409</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D356" s="2"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>17</v>
       </c>
@@ -4366,10 +4732,11 @@
         <v>4</v>
       </c>
       <c r="C357" s="2">
-        <v>132.14833709933529</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="D357" s="2"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>17</v>
       </c>
@@ -4377,10 +4744,11 @@
         <v>5</v>
       </c>
       <c r="C358" s="2">
-        <v>183.78883402757481</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="D358" s="2"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>17</v>
       </c>
@@ -4388,10 +4756,11 @@
         <v>6</v>
       </c>
       <c r="C359" s="2">
-        <v>205.74500558756179</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="D359" s="2"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>17</v>
       </c>
@@ -4399,10 +4768,11 @@
         <v>7</v>
       </c>
       <c r="C360" s="2">
-        <v>169.18748081164071</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D360" s="2"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>17</v>
       </c>
@@ -4410,10 +4780,11 @@
         <v>8</v>
       </c>
       <c r="C361" s="2">
-        <v>163.6327211616551</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="D361" s="2"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>17</v>
       </c>
@@ -4421,10 +4792,11 @@
         <v>9</v>
       </c>
       <c r="C362" s="2">
-        <v>175.5005340375389</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="D362" s="2"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>17</v>
       </c>
@@ -4432,10 +4804,11 @@
         <v>10</v>
       </c>
       <c r="C363" s="2">
-        <v>196.92900270434001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>17</v>
       </c>
@@ -4443,10 +4816,11 @@
         <v>11</v>
       </c>
       <c r="C364" s="2">
-        <v>127.1436722798429</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>17</v>
       </c>
@@ -4454,10 +4828,11 @@
         <v>12</v>
       </c>
       <c r="C365" s="2">
-        <v>101.96435922692829</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="D365" s="2"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>17</v>
       </c>
@@ -4465,10 +4840,11 @@
         <v>13</v>
       </c>
       <c r="C366" s="2">
-        <v>58.146610088489759</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D366" s="2"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>17</v>
       </c>
@@ -4476,10 +4852,11 @@
         <v>14</v>
       </c>
       <c r="C367" s="2">
-        <v>41.940173413607639</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D367" s="2"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>17</v>
       </c>
@@ -4487,10 +4864,11 @@
         <v>15</v>
       </c>
       <c r="C368" s="2">
-        <v>90.017979065081789</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>17</v>
       </c>
@@ -4498,10 +4876,11 @@
         <v>16</v>
       </c>
       <c r="C369" s="2">
-        <v>77.323207857336612</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>17</v>
       </c>
@@ -4509,10 +4888,11 @@
         <v>18</v>
       </c>
       <c r="C370" s="2">
-        <v>125.23817482118331</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>17</v>
       </c>
@@ -4520,10 +4900,11 @@
         <v>19</v>
       </c>
       <c r="C371" s="2">
-        <v>174.49912181470251</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>17</v>
       </c>
@@ -4531,10 +4912,11 @@
         <v>20</v>
       </c>
       <c r="C372" s="2">
-        <v>145.6088447943967</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>17</v>
       </c>
@@ -4542,10 +4924,11 @@
         <v>21</v>
       </c>
       <c r="C373" s="2">
-        <v>192.92472672452359</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="D373" s="2"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>17</v>
       </c>
@@ -4553,10 +4936,11 @@
         <v>22</v>
       </c>
       <c r="C374" s="2">
-        <v>194.45606768190029</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>17</v>
       </c>
@@ -4564,10 +4948,11 @@
         <v>23</v>
       </c>
       <c r="C375" s="2">
-        <v>132.6857115698121</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="D375" s="2"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>18</v>
       </c>
@@ -4575,10 +4960,11 @@
         <v>1</v>
       </c>
       <c r="C376" s="2">
-        <v>149.27811179134201</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>18</v>
       </c>
@@ -4586,10 +4972,11 @@
         <v>2</v>
       </c>
       <c r="C377" s="2">
-        <v>63.962723009642829</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>18</v>
       </c>
@@ -4597,10 +4984,11 @@
         <v>3</v>
       </c>
       <c r="C378" s="2">
-        <v>84.641027223506768</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>18</v>
       </c>
@@ -4608,10 +4996,11 @@
         <v>4</v>
       </c>
       <c r="C379" s="2">
-        <v>90.260364163379961</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>18</v>
       </c>
@@ -4619,10 +5008,11 @@
         <v>5</v>
       </c>
       <c r="C380" s="2">
-        <v>207.71450048634969</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="D380" s="2"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>18</v>
       </c>
@@ -4630,10 +5020,11 @@
         <v>6</v>
       </c>
       <c r="C381" s="2">
-        <v>191.17003947166819</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>18</v>
       </c>
@@ -4641,10 +5032,11 @@
         <v>7</v>
       </c>
       <c r="C382" s="2">
-        <v>169.4798973111744</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D382" s="2"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>18</v>
       </c>
@@ -4652,10 +5044,11 @@
         <v>8</v>
       </c>
       <c r="C383" s="2">
-        <v>140.11941894967021</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>18</v>
       </c>
@@ -4663,10 +5056,11 @@
         <v>9</v>
       </c>
       <c r="C384" s="2">
-        <v>120.74923802539089</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>18</v>
       </c>
@@ -4674,10 +5068,11 @@
         <v>10</v>
       </c>
       <c r="C385" s="2">
-        <v>99.513299363501403</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>18</v>
       </c>
@@ -4685,10 +5080,11 @@
         <v>11</v>
       </c>
       <c r="C386" s="2">
-        <v>112.2038680587839</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>18</v>
       </c>
@@ -4696,10 +5092,11 @@
         <v>12</v>
       </c>
       <c r="C387" s="2">
-        <v>115.81171968692649</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>18</v>
       </c>
@@ -4707,10 +5104,11 @@
         <v>13</v>
       </c>
       <c r="C388" s="2">
-        <v>130.46719053058811</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>18</v>
       </c>
@@ -4718,10 +5116,11 @@
         <v>14</v>
       </c>
       <c r="C389" s="2">
-        <v>136.4083627085725</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>18</v>
       </c>
@@ -4729,10 +5128,11 @@
         <v>15</v>
       </c>
       <c r="C390" s="2">
-        <v>66.110455806440669</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>18</v>
       </c>
@@ -4740,10 +5140,11 @@
         <v>16</v>
       </c>
       <c r="C391" s="2">
-        <v>66.762002180631214</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D391" s="2"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>18</v>
       </c>
@@ -4751,10 +5152,11 @@
         <v>17</v>
       </c>
       <c r="C392" s="2">
-        <v>125.23817482118331</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D392" s="2"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>18</v>
       </c>
@@ -4762,10 +5164,11 @@
         <v>19</v>
       </c>
       <c r="C393" s="2">
-        <v>73.233665954803655</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="D393" s="2"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>18</v>
       </c>
@@ -4773,10 +5176,11 @@
         <v>20</v>
       </c>
       <c r="C394" s="2">
-        <v>103.1391354806379</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D394" s="2"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>18</v>
       </c>
@@ -4784,10 +5188,11 @@
         <v>21</v>
       </c>
       <c r="C395" s="2">
-        <v>131.0488066563444</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D395" s="2"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>18</v>
       </c>
@@ -4795,10 +5200,11 @@
         <v>22</v>
       </c>
       <c r="C396" s="2">
-        <v>160.3233118404126</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="D396" s="2"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>18</v>
       </c>
@@ -4806,10 +5212,11 @@
         <v>23</v>
       </c>
       <c r="C397" s="2">
-        <v>141.52896802156181</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="D397" s="2"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>19</v>
       </c>
@@ -4817,10 +5224,11 @@
         <v>1</v>
       </c>
       <c r="C398" s="2">
-        <v>222.19837306069681</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="D398" s="2"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>19</v>
       </c>
@@ -4828,10 +5236,11 @@
         <v>2</v>
       </c>
       <c r="C399" s="2">
-        <v>131.08931044114721</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D399" s="2"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>19</v>
       </c>
@@ -4839,10 +5248,11 @@
         <v>3</v>
       </c>
       <c r="C400" s="2">
-        <v>151.5164054204287</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D400" s="2"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>19</v>
       </c>
@@ -4850,10 +5260,11 @@
         <v>4</v>
       </c>
       <c r="C401" s="2">
-        <v>67.28326414464</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D401" s="2"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>19</v>
       </c>
@@ -4861,10 +5272,11 @@
         <v>5</v>
       </c>
       <c r="C402" s="2">
-        <v>280.91347167668232</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="D402" s="2"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>19</v>
       </c>
@@ -4872,10 +5284,11 @@
         <v>6</v>
       </c>
       <c r="C403" s="2">
-        <v>261.53232143880422</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="D403" s="2"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>19</v>
       </c>
@@ -4883,10 +5296,11 @@
         <v>7</v>
       </c>
       <c r="C404" s="2">
-        <v>242.08209422959641</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="D404" s="2"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>19</v>
       </c>
@@ -4894,10 +5308,11 @@
         <v>8</v>
       </c>
       <c r="C405" s="2">
-        <v>211.30309227802729</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="D405" s="2"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>19</v>
       </c>
@@ -4905,10 +5320,11 @@
         <v>9</v>
       </c>
       <c r="C406" s="2">
-        <v>186.9934630137794</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D406" s="2"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>19</v>
       </c>
@@ -4916,10 +5332,11 @@
         <v>10</v>
       </c>
       <c r="C407" s="2">
-        <v>148.08717376870979</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>19</v>
       </c>
@@ -4927,10 +5344,11 @@
         <v>11</v>
       </c>
       <c r="C408" s="2">
-        <v>185.24702753761281</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>19</v>
       </c>
@@ -4938,10 +5356,11 @@
         <v>12</v>
       </c>
       <c r="C409" s="2">
-        <v>188.45414162841479</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>19</v>
       </c>
@@ -4949,10 +5368,11 @@
         <v>13</v>
       </c>
       <c r="C410" s="2">
-        <v>195.9968732533477</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>19</v>
       </c>
@@ -4960,10 +5380,11 @@
         <v>14</v>
       </c>
       <c r="C411" s="2">
-        <v>197.39163655414069</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D411" s="2"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>19</v>
       </c>
@@ -4971,10 +5392,11 @@
         <v>15</v>
       </c>
       <c r="C412" s="2">
-        <v>138.09645453511791</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="D412" s="2"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>19</v>
       </c>
@@ -4982,10 +5404,11 @@
         <v>16</v>
       </c>
       <c r="C413" s="2">
-        <v>136.12284221477611</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D413" s="2"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>19</v>
       </c>
@@ -4993,10 +5416,11 @@
         <v>17</v>
       </c>
       <c r="C414" s="2">
-        <v>174.49912181470251</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="D414" s="2"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>19</v>
       </c>
@@ -5004,10 +5428,11 @@
         <v>18</v>
       </c>
       <c r="C415" s="2">
-        <v>73.233665954803655</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="D415" s="2"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>19</v>
       </c>
@@ -5015,10 +5440,11 @@
         <v>20</v>
       </c>
       <c r="C416" s="2">
-        <v>69.43861798147509</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D416" s="2"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>19</v>
       </c>
@@ -5026,10 +5452,11 @@
         <v>21</v>
       </c>
       <c r="C417" s="2">
-        <v>69.961676518550689</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D417" s="2"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>19</v>
       </c>
@@ -5037,10 +5464,11 @@
         <v>22</v>
       </c>
       <c r="C418" s="2">
-        <v>109.7973280131668</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="D418" s="2"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>19</v>
       </c>
@@ -5048,10 +5476,11 @@
         <v>23</v>
       </c>
       <c r="C419" s="2">
-        <v>124.57971600712941</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D419" s="2"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>20</v>
       </c>
@@ -5059,10 +5488,11 @@
         <v>1</v>
       </c>
       <c r="C420" s="2">
-        <v>240.62098060905791</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="D420" s="2"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>20</v>
       </c>
@@ -5070,10 +5500,11 @@
         <v>2</v>
       </c>
       <c r="C421" s="2">
-        <v>166.72992585399379</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="D421" s="2"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>20</v>
       </c>
@@ -5081,10 +5512,11 @@
         <v>3</v>
       </c>
       <c r="C422" s="2">
-        <v>149.4135939891093</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D422" s="2"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>20</v>
       </c>
@@ -5092,10 +5524,11 @@
         <v>4</v>
       </c>
       <c r="C423" s="2">
-        <v>15.32036537858847</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D423" s="2"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>20</v>
       </c>
@@ -5103,10 +5536,11 @@
         <v>5</v>
       </c>
       <c r="C424" s="2">
-        <v>294.11187198110588</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="D424" s="2"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>20</v>
       </c>
@@ -5114,10 +5548,11 @@
         <v>6</v>
       </c>
       <c r="C425" s="2">
-        <v>288.76392726377748</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="D425" s="2"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>20</v>
       </c>
@@ -5125,10 +5560,11 @@
         <v>7</v>
       </c>
       <c r="C426" s="2">
-        <v>261.90574262104712</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="D426" s="2"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>20</v>
       </c>
@@ -5136,10 +5572,11 @@
         <v>8</v>
       </c>
       <c r="C427" s="2">
-        <v>237.3920232143675</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="D427" s="2"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>20</v>
       </c>
@@ -5147,10 +5584,11 @@
         <v>9</v>
       </c>
       <c r="C428" s="2">
-        <v>222.96957900996139</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="D428" s="2"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>20</v>
       </c>
@@ -5158,10 +5596,11 @@
         <v>10</v>
       </c>
       <c r="C429" s="2">
-        <v>199.41071013198149</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="D429" s="2"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>20</v>
       </c>
@@ -5169,10 +5608,11 @@
         <v>11</v>
       </c>
       <c r="C430" s="2">
-        <v>204.262838265651</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="D430" s="2"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>20</v>
       </c>
@@ -5180,10 +5620,11 @@
         <v>12</v>
       </c>
       <c r="C431" s="2">
-        <v>197.22614815202081</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D431" s="2"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>20</v>
       </c>
@@ -5191,10 +5632,11 @@
         <v>13</v>
       </c>
       <c r="C432" s="2">
-        <v>185.7760276550267</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="D432" s="2"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>20</v>
       </c>
@@ -5202,10 +5644,11 @@
         <v>14</v>
       </c>
       <c r="C433" s="2">
-        <v>179.89486232193059</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="D433" s="2"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>20</v>
       </c>
@@ -5213,10 +5656,11 @@
         <v>15</v>
       </c>
       <c r="C434" s="2">
-        <v>149.36119274447859</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D434" s="2"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>20</v>
       </c>
@@ -5224,10 +5668,11 @@
         <v>16</v>
       </c>
       <c r="C435" s="2">
-        <v>141.27930622290239</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="D435" s="2"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>20</v>
       </c>
@@ -5235,10 +5680,11 @@
         <v>17</v>
       </c>
       <c r="C436" s="2">
-        <v>145.6088447943967</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D436" s="2"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>20</v>
       </c>
@@ -5246,10 +5692,11 @@
         <v>18</v>
       </c>
       <c r="C437" s="2">
-        <v>103.1391354806379</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D437" s="2"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>20</v>
       </c>
@@ -5257,10 +5704,11 @@
         <v>19</v>
       </c>
       <c r="C438" s="2">
-        <v>69.43861798147509</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D438" s="2"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>20</v>
       </c>
@@ -5268,10 +5716,11 @@
         <v>21</v>
       </c>
       <c r="C439" s="2">
-        <v>47.561769579290342</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D439" s="2"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>20</v>
       </c>
@@ -5279,10 +5728,11 @@
         <v>22</v>
       </c>
       <c r="C440" s="2">
-        <v>58.91767890292661</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D440" s="2"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>20</v>
       </c>
@@ -5290,10 +5740,11 @@
         <v>23</v>
       </c>
       <c r="C441" s="2">
-        <v>55.790535963876927</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>21</v>
       </c>
@@ -5301,10 +5752,11 @@
         <v>1</v>
       </c>
       <c r="C442" s="2">
-        <v>277.35856497885158</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>21</v>
       </c>
@@ -5312,10 +5764,11 @@
         <v>2</v>
       </c>
       <c r="C443" s="2">
-        <v>194.1910406769025</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D443" s="2"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>21</v>
       </c>
@@ -5323,10 +5776,11 @@
         <v>3</v>
       </c>
       <c r="C444" s="2">
-        <v>191.75227254823901</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="D444" s="2"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>21</v>
       </c>
@@ -5334,10 +5788,11 @@
         <v>4</v>
       </c>
       <c r="C445" s="2">
-        <v>60.896377801926697</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D445" s="2"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>21</v>
       </c>
@@ -5345,10 +5800,11 @@
         <v>5</v>
       </c>
       <c r="C446" s="2">
-        <v>333.30768471715572</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="D446" s="2"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>21</v>
       </c>
@@ -5356,10 +5812,11 @@
         <v>6</v>
       </c>
       <c r="C447" s="2">
-        <v>322.00034315520901</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="D447" s="2"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>21</v>
       </c>
@@ -5367,10 +5824,11 @@
         <v>7</v>
       </c>
       <c r="C448" s="2">
-        <v>298.26473583156019</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="D448" s="2"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>21</v>
       </c>
@@ -5378,10 +5836,11 @@
         <v>8</v>
       </c>
       <c r="C449" s="2">
-        <v>270.73908184829878</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="D449" s="2"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>21</v>
       </c>
@@ -5389,10 +5848,11 @@
         <v>9</v>
       </c>
       <c r="C450" s="2">
-        <v>251.08217962917001</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="D450" s="2"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>21</v>
       </c>
@@ -5400,10 +5860,11 @@
         <v>10</v>
       </c>
       <c r="C451" s="2">
-        <v>217.19774446563301</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+      <c r="D451" s="2"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>21</v>
       </c>
@@ -5411,10 +5872,11 @@
         <v>11</v>
       </c>
       <c r="C452" s="2">
-        <v>240.31349181873361</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="D452" s="2"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>21</v>
       </c>
@@ -5422,10 +5884,11 @@
         <v>12</v>
       </c>
       <c r="C453" s="2">
-        <v>237.03430122468311</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="D453" s="2"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>21</v>
       </c>
@@ -5433,10 +5896,11 @@
         <v>13</v>
       </c>
       <c r="C454" s="2">
-        <v>230.71262510560649</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="D454" s="2"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>21</v>
       </c>
@@ -5444,10 +5908,11 @@
         <v>14</v>
       </c>
       <c r="C455" s="2">
-        <v>226.12449013260081</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D455" s="2"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>21</v>
       </c>
@@ -5455,10 +5920,11 @@
         <v>15</v>
       </c>
       <c r="C456" s="2">
-        <v>187.3301803922466</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D456" s="2"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>21</v>
       </c>
@@ -5466,10 +5932,11 @@
         <v>16</v>
       </c>
       <c r="C457" s="2">
-        <v>181.16585183106719</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="D457" s="2"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>21</v>
       </c>
@@ -5477,10 +5944,11 @@
         <v>17</v>
       </c>
       <c r="C458" s="2">
-        <v>192.92472672452359</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="D458" s="2"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>21</v>
       </c>
@@ -5488,10 +5956,11 @@
         <v>18</v>
       </c>
       <c r="C459" s="2">
-        <v>131.0488066563444</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D459" s="2"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>21</v>
       </c>
@@ -5499,10 +5968,11 @@
         <v>19</v>
       </c>
       <c r="C460" s="2">
-        <v>69.961676518550689</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D460" s="2"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>21</v>
       </c>
@@ -5510,10 +5980,11 @@
         <v>20</v>
       </c>
       <c r="C461" s="2">
-        <v>47.561769579290342</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D461" s="2"/>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>21</v>
       </c>
@@ -5521,10 +5992,11 @@
         <v>22</v>
       </c>
       <c r="C462" s="2">
-        <v>43.497491451289768</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D462" s="2"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>21</v>
       </c>
@@ -5532,10 +6004,11 @@
         <v>23</v>
       </c>
       <c r="C463" s="2">
-        <v>90.089187794370332</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D463" s="2"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>22</v>
       </c>
@@ -5543,10 +6016,11 @@
         <v>1</v>
       </c>
       <c r="C464" s="2">
-        <v>299.43279814987932</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="D464" s="2"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>22</v>
       </c>
@@ -5554,10 +6028,11 @@
         <v>2</v>
       </c>
       <c r="C465" s="2">
-        <v>224.2694722532552</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D465" s="2"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>22</v>
       </c>
@@ -5565,10 +6040,11 @@
         <v>3</v>
       </c>
       <c r="C466" s="2">
-        <v>206.74290577158379</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="D466" s="2"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>22</v>
       </c>
@@ -5576,10 +6052,11 @@
         <v>4</v>
       </c>
       <c r="C467" s="2">
-        <v>73.927280312413188</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="D467" s="2"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>22</v>
       </c>
@@ -5587,10 +6064,11 @@
         <v>5</v>
       </c>
       <c r="C468" s="2">
-        <v>352.32906496191322</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="D468" s="2"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>22</v>
       </c>
@@ -5598,10 +6076,11 @@
         <v>6</v>
       </c>
       <c r="C469" s="2">
-        <v>347.64480714944227</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="D469" s="2"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>22</v>
       </c>
@@ -5609,10 +6088,11 @@
         <v>7</v>
       </c>
       <c r="C470" s="2">
-        <v>320.74151717186851</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="D470" s="2"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>22</v>
       </c>
@@ -5620,10 +6100,11 @@
         <v>8</v>
       </c>
       <c r="C471" s="2">
-        <v>296.25684730184702</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D471" s="2"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>22</v>
       </c>
@@ -5631,10 +6112,11 @@
         <v>9</v>
       </c>
       <c r="C472" s="2">
-        <v>280.89682057052403</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="D472" s="2"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>22</v>
       </c>
@@ -5642,10 +6124,11 @@
         <v>10</v>
       </c>
       <c r="C473" s="2">
-        <v>253.1297384185396</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="D473" s="2"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>22</v>
       </c>
@@ -5653,10 +6136,11 @@
         <v>11</v>
       </c>
       <c r="C474" s="2">
-        <v>263.15694137517391</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="D474" s="2"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>22</v>
       </c>
@@ -5664,10 +6148,11 @@
         <v>12</v>
       </c>
       <c r="C475" s="2">
-        <v>255.46127138332201</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="D475" s="2"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>22</v>
       </c>
@@ -5675,10 +6160,11 @@
         <v>13</v>
       </c>
       <c r="C476" s="2">
-        <v>240.3536776283722</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="D476" s="2"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>22</v>
       </c>
@@ -5686,10 +6172,11 @@
         <v>14</v>
       </c>
       <c r="C477" s="2">
-        <v>232.19675215802349</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="D477" s="2"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>22</v>
       </c>
@@ -5697,10 +6184,11 @@
         <v>15</v>
       </c>
       <c r="C478" s="2">
-        <v>208.1479543814655</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="D478" s="2"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>22</v>
       </c>
@@ -5708,10 +6196,11 @@
         <v>16</v>
       </c>
       <c r="C479" s="2">
-        <v>199.70757478153081</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="D479" s="2"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>22</v>
       </c>
@@ -5719,10 +6208,11 @@
         <v>17</v>
       </c>
       <c r="C480" s="2">
-        <v>194.45606768190029</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D480" s="2"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>22</v>
       </c>
@@ -5730,10 +6220,11 @@
         <v>18</v>
       </c>
       <c r="C481" s="2">
-        <v>160.3233118404126</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="D481" s="2"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>22</v>
       </c>
@@ -5741,10 +6232,11 @@
         <v>19</v>
       </c>
       <c r="C482" s="2">
-        <v>109.7973280131668</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="D482" s="2"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>22</v>
       </c>
@@ -5752,10 +6244,11 @@
         <v>20</v>
       </c>
       <c r="C483" s="2">
-        <v>58.91767890292661</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D483" s="2"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>22</v>
       </c>
@@ -5763,10 +6256,11 @@
         <v>21</v>
       </c>
       <c r="C484" s="2">
-        <v>43.497491451289768</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D484" s="2"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>22</v>
       </c>
@@ -5774,10 +6268,11 @@
         <v>23</v>
       </c>
       <c r="C485" s="2">
-        <v>69.373134271639202</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D485" s="2"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>23</v>
       </c>
@@ -5785,10 +6280,11 @@
         <v>1</v>
       </c>
       <c r="C486" s="2">
-        <v>257.87679971378441</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="D486" s="2"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>23</v>
       </c>
@@ -5796,10 +6292,11 @@
         <v>2</v>
       </c>
       <c r="C487" s="2">
-        <v>200.5770393329729</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="D487" s="2"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>23</v>
       </c>
@@ -5807,10 +6304,11 @@
         <v>3</v>
       </c>
       <c r="C488" s="2">
-        <v>159.39948220395189</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="D488" s="2"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>23</v>
       </c>
@@ -5818,10 +6316,11 @@
         <v>4</v>
       </c>
       <c r="C489" s="2">
-        <v>58.537944848351117</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D489" s="2"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>23</v>
       </c>
@@ -5829,10 +6328,11 @@
         <v>5</v>
       </c>
       <c r="C490" s="2">
-        <v>304.97980131534371</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="D490" s="2"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>23</v>
       </c>
@@ -5840,10 +6340,11 @@
         <v>6</v>
       </c>
       <c r="C491" s="2">
-        <v>310.44306420046081</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="D491" s="2"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>23</v>
       </c>
@@ -5851,10 +6352,11 @@
         <v>7</v>
       </c>
       <c r="C492" s="2">
-        <v>279.15209283616088</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="D492" s="2"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>23</v>
       </c>
@@ -5862,10 +6364,11 @@
         <v>8</v>
       </c>
       <c r="C493" s="2">
-        <v>260.39022042516632</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="D493" s="2"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>23</v>
       </c>
@@ -5873,10 +6376,11 @@
         <v>9</v>
       </c>
       <c r="C494" s="2">
-        <v>253.57045038418201</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="D494" s="2"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>23</v>
       </c>
@@ -5884,10 +6388,11 @@
         <v>10</v>
       </c>
       <c r="C495" s="2">
-        <v>241.0286175896432</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="D495" s="2"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>23</v>
       </c>
@@ -5895,10 +6400,11 @@
         <v>11</v>
       </c>
       <c r="C496" s="2">
-        <v>224.20701121183529</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="D496" s="2"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>23</v>
       </c>
@@ -5906,10 +6412,11 @@
         <v>12</v>
       </c>
       <c r="C497" s="2">
-        <v>210.21616965910741</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="D497" s="2"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>23</v>
       </c>
@@ -5917,10 +6424,11 @@
         <v>13</v>
       </c>
       <c r="C498" s="2">
-        <v>184.74764799244309</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="D498" s="2"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>23</v>
       </c>
@@ -5928,10 +6436,11 @@
         <v>14</v>
       </c>
       <c r="C499" s="2">
-        <v>173.20247448661669</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="D499" s="2"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>23</v>
       </c>
@@ -5939,10 +6448,11 @@
         <v>15</v>
       </c>
       <c r="C500" s="2">
-        <v>169.220035254078</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D500" s="2"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>23</v>
       </c>
@@ -5950,10 +6460,11 @@
         <v>16</v>
       </c>
       <c r="C501" s="2">
-        <v>157.95179479550731</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="D501" s="2"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>23</v>
       </c>
@@ -5961,10 +6472,11 @@
         <v>17</v>
       </c>
       <c r="C502" s="2">
-        <v>132.6857115698121</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="D502" s="2"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>23</v>
       </c>
@@ -5972,10 +6484,11 @@
         <v>18</v>
       </c>
       <c r="C503" s="2">
-        <v>141.52896802156181</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="D503" s="2"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>23</v>
       </c>
@@ -5983,10 +6496,11 @@
         <v>19</v>
       </c>
       <c r="C504" s="2">
-        <v>124.57971600712941</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D504" s="2"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>23</v>
       </c>
@@ -5994,10 +6508,11 @@
         <v>20</v>
       </c>
       <c r="C505" s="2">
-        <v>55.790535963876927</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="D505" s="2"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>23</v>
       </c>
@@ -6005,10 +6520,11 @@
         <v>21</v>
       </c>
       <c r="C506" s="2">
-        <v>90.089187794370332</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D506" s="2"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>23</v>
       </c>
@@ -6016,8 +6532,9 @@
         <v>22</v>
       </c>
       <c r="C507" s="2">
-        <v>69.373134271639202</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D507" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
